--- a/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.218350021535046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.328002537080433</v>
+        <v>-0.3280025370804317</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.810046600472728</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.30670219965037</v>
+        <v>-5.346275212782342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.462426247302274</v>
+        <v>-5.29170530497808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.990646934205129</v>
+        <v>-3.751776625461054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.342747189036662</v>
+        <v>-1.412390217677795</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.267088338543814</v>
+        <v>-2.19184184420198</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7425238033551486</v>
+        <v>-0.1178887694343605</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.39426981875344</v>
+        <v>-2.429920501918112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.928731570791426</v>
+        <v>-3.089667868942835</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9572911823563697</v>
+        <v>-0.9610337722916908</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7814883330295307</v>
+        <v>0.8575262975841987</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7514442618032804</v>
+        <v>0.6853075444964071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.605839345618027</v>
+        <v>2.732613134670123</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.197686720019759</v>
+        <v>5.178403426944814</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.045238222515464</v>
+        <v>4.396824764527563</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.350582601169179</v>
+        <v>5.384692205054057</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.092451754854397</v>
+        <v>2.030551511302503</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.532742470758119</v>
+        <v>1.653766652718839</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.348686014530448</v>
+        <v>3.228836025411927</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.476742088011005</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.07049050550301643</v>
+        <v>-0.07049050550301612</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7162014042267689</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8038864835442243</v>
+        <v>-0.7994209694881169</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8326091062249859</v>
+        <v>-0.8199811689621588</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5778080668386487</v>
+        <v>-0.5521762868373509</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.389430301469732</v>
+        <v>-0.477971452363681</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6734799594665312</v>
+        <v>-0.6281821637145766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2309807279420896</v>
+        <v>-0.1069975504946019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4985446231711732</v>
+        <v>-0.5229388800630118</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6168262291270507</v>
+        <v>-0.6412886777972417</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1989429044219627</v>
+        <v>-0.2124820460984587</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4992190321966868</v>
+        <v>0.3577930415356058</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3678298011915138</v>
+        <v>0.3624638159509651</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8455860535004273</v>
+        <v>1.15274480104525</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.38466125207866</v>
+        <v>4.30482734694653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.644018607766535</v>
+        <v>3.811871777247891</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.628939178473273</v>
+        <v>5.270176100052774</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.870819729305634</v>
+        <v>0.8813071279232771</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7139600822453558</v>
+        <v>0.7125276406378733</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.38554378755093</v>
+        <v>1.36782671332637</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.409863681189562</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.3477779970765218</v>
+        <v>-0.3477779970765211</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.319673896331005</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.955588988107844</v>
+        <v>-3.732959123445878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.813354423811258</v>
+        <v>-4.86657793595578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.814232107868503</v>
+        <v>-2.790463474382317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.114409473568434</v>
+        <v>-1.285318237843076</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.347680038673712</v>
+        <v>-3.157551638329795</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9319479602606741</v>
+        <v>-0.8870229505096684</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.837993503814545</v>
+        <v>-1.827724459525838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.252573077220441</v>
+        <v>-3.285137547864234</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.189284491294915</v>
+        <v>-1.104118990542837</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6380157175230732</v>
+        <v>0.6907460131806928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5509420943320874</v>
+        <v>-0.6059672945932594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.919820593763268</v>
+        <v>2.303472064761913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.270787183863784</v>
+        <v>3.856390142699042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8958367488455679</v>
+        <v>1.322634112649209</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.474337501543964</v>
+        <v>3.649943012870493</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.605264125087128</v>
+        <v>1.788882829061205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2505154649703606</v>
+        <v>-0.145805417046536</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.164622927941326</v>
+        <v>2.211960516408739</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.6459622559832559</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.0932216462393405</v>
+        <v>-0.09322164623934032</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.396627739876544</v>
@@ -974,7 +974,7 @@
         <v>-0.3243253154258484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4289689236674035</v>
+        <v>0.4289689236674036</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01516107454146064</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7301464592904007</v>
+        <v>-0.7488366681509457</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8643215777421975</v>
+        <v>-0.8790646037189244</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5729000705590696</v>
+        <v>-0.5515440612550362</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.26602502899753</v>
+        <v>-0.3160652609985761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.73409175619125</v>
+        <v>-0.7276404265359288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2100583568913707</v>
+        <v>-0.2172205240466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4216879375464435</v>
+        <v>-0.4014053849117404</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7428093732413308</v>
+        <v>-0.73967890887184</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2737621574616482</v>
+        <v>-0.25269487466959</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2924899284752492</v>
+        <v>0.3155035260712594</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1332193048346586</v>
+        <v>-0.1862188245563538</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7960746455689754</v>
+        <v>1.035920487689723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.979473986119818</v>
+        <v>1.73731796785501</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4671972887546098</v>
+        <v>0.7553186907564018</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.63896472309741</v>
+        <v>1.643079702892051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6363933186148683</v>
+        <v>0.6925635248876852</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.07043965832622404</v>
+        <v>-0.01701237341259345</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8552952729354059</v>
+        <v>0.8055251008910769</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.676345486242912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.275943268950376</v>
+        <v>2.275943268950374</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.021275355478461</v>
@@ -1083,7 +1083,7 @@
         <v>-2.40841842319108</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.961470829474276</v>
+        <v>4.961470829474277</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.353049597976099</v>
@@ -1092,7 +1092,7 @@
         <v>-2.052878917353743</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.696504708098657</v>
+        <v>3.696504708098656</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.285760490470911</v>
+        <v>-1.616161701280743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.796227654129067</v>
+        <v>-4.489207939852424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9668900326230048</v>
+        <v>-0.4401316531500098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.317107998729066</v>
+        <v>-2.110074226935179</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.260193394893396</v>
+        <v>-5.303183888001381</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.637689709352311</v>
+        <v>1.678906499404745</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.7613454901350915</v>
+        <v>-1.339537209032635</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.964024466357795</v>
+        <v>-4.117311249938292</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.507787176273649</v>
+        <v>1.328683251747201</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.215511571647674</v>
+        <v>5.07139077102862</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8521977011315071</v>
+        <v>0.9328181195088733</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.061895349144571</v>
+        <v>5.666060821236537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.209846446279113</v>
+        <v>4.334166885168649</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1881866748286269</v>
+        <v>-0.1076327761701462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.269696511330494</v>
+        <v>8.098868764324809</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.717135597938802</v>
+        <v>3.766808190534793</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2095721575002152</v>
+        <v>-0.1688390366211905</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.096257628745684</v>
+        <v>5.944832481144018</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3990695293625985</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5418093207216048</v>
+        <v>0.5418093207216045</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2494518522319744</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4951459654674783</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8915817572455482</v>
+        <v>0.8915817572455479</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4576093338880634</v>
+        <v>-0.3371375184061522</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7671923542680537</v>
+        <v>-0.752056121402974</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.208771686142869</v>
+        <v>-0.1300132986845892</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4392483518813006</v>
+        <v>-0.4248831538505529</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8930711057819248</v>
+        <v>-0.9019787058277887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2458027562543698</v>
+        <v>0.2401585773252741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1771706882697167</v>
+        <v>-0.269154469570141</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7402904911000004</v>
+        <v>-0.7460192445611581</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2528608547382555</v>
+        <v>0.2029739989935024</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.855594501712909</v>
+        <v>1.710596490600233</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4604540959162935</v>
+        <v>0.5001352047055215</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.853290685004704</v>
+        <v>2.131724129876241</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.629353457632047</v>
+        <v>1.657888391177153</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3036835389094749</v>
+        <v>0.1175320998954852</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.358351619612325</v>
+        <v>3.229680390714234</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.250343438948408</v>
+        <v>1.14433757311666</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.0008321998837479605</v>
+        <v>-0.003319949941568748</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.102571400339512</v>
+        <v>1.904763247269115</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.243196224732204</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.143097872317218</v>
+        <v>1.14309787231722</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.149568198008868</v>
@@ -1306,7 +1306,7 @@
         <v>-2.318177662586971</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.731403377257204</v>
+        <v>2.731403377257203</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.954641186532166</v>
+        <v>-3.142377163504517</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.826978108254672</v>
+        <v>-4.999086095343324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6843140348752837</v>
+        <v>0.9592091125279102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.688659566469057</v>
+        <v>-4.450478860027553</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.182565256287479</v>
+        <v>-5.092862756432083</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.798613559062085</v>
+        <v>-1.786413081836353</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.280496171575619</v>
+        <v>-3.175953759652851</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.011784148390737</v>
+        <v>-4.265228987992175</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.464979571966105</v>
+        <v>0.3809046865601073</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.258950475893821</v>
+        <v>2.371888593333514</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2938597692845977</v>
+        <v>-0.3116502782865324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.737573021201818</v>
+        <v>8.857307159390494</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.063196683836253</v>
+        <v>1.449610423427569</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.165062427361051</v>
+        <v>0.7543479729534803</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.916459793289089</v>
+        <v>4.064635201783102</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7210289145056593</v>
+        <v>0.9401134038912773</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.268626302040093</v>
+        <v>-0.3476230878964383</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.37603473825395</v>
+        <v>5.262928610400269</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.4225509007738587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2153253604365285</v>
+        <v>0.2153253604365288</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.257235587982292</v>
@@ -1411,7 +1411,7 @@
         <v>-0.5187319857280661</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6111983221026396</v>
+        <v>0.6111983221026394</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.615215227991304</v>
+        <v>-0.629081093194879</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8985906342908359</v>
+        <v>-0.8981521537816872</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07187939163001258</v>
+        <v>0.1405726954314555</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6840322814570778</v>
+        <v>-0.6600373273419899</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7741777547911971</v>
+        <v>-0.7769308761784356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2607430141509192</v>
+        <v>-0.2597010577124558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5761441511545451</v>
+        <v>-0.5658108722088631</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7432326635646491</v>
+        <v>-0.7646150307600998</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07031399441387297</v>
+        <v>0.05298971486510116</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.127775566408813</v>
+        <v>1.069226927448207</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02298340171787259</v>
+        <v>0.1482879924029322</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.675573364634932</v>
+        <v>3.860211797051722</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3788411761068331</v>
+        <v>0.4217400856695948</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3982635715457292</v>
+        <v>0.2652032772097739</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.054845453173422</v>
+        <v>1.098295989120925</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2429922762881474</v>
+        <v>0.3254544913532581</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0008278677445887998</v>
+        <v>-0.0353270818291942</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.625834967677026</v>
+        <v>1.491317117604285</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.392503965436746</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.4284520698411162</v>
+        <v>-0.4284520698411169</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.612005024714891</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.01979044211238</v>
+        <v>-2.042131735519093</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.588605578192089</v>
+        <v>-5.291207609777403</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.901286999782461</v>
+        <v>-4.137573637450284</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7841632940766063</v>
+        <v>0.8478026785995367</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.762830195418015</v>
+        <v>-1.984324978377312</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5947125702320829</v>
+        <v>0.7679382777452864</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3470406764553837</v>
+        <v>0.3504551753404093</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.872033150171449</v>
+        <v>-2.864891817641558</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5765124822433464</v>
+        <v>-0.7192260261749676</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.170900537959586</v>
+        <v>6.113698261285474</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04321077671125582</v>
+        <v>0.2566270064535196</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.198264279739466</v>
+        <v>2.346954305296254</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.299991823856971</v>
+        <v>7.208076665978015</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.66965439300216</v>
+        <v>2.495850365022287</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.969118457487276</v>
+        <v>5.047888336194564</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.346525978052907</v>
+        <v>5.400498375791315</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9692057968941348</v>
+        <v>0.7500503341930682</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.133132217505189</v>
+        <v>3.031031378195319</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.7217750472907826</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1292562175189345</v>
+        <v>-0.1292562175189347</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>3.540013726841422</v>
@@ -1636,29 +1636,29 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.462928713975346</v>
+        <v>-0.4720367915546751</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7228321812802674</v>
+        <v>-0.7083999994545723</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1205402140966372</v>
+        <v>-0.2357072845860163</v>
       </c>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>-0.06536793366785755</v>
+        <v>-0.03333462076184852</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05084163748931906</v>
+        <v>0.04120262705287604</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8568446389701502</v>
+        <v>-0.8654864668954235</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2049082720319511</v>
+        <v>-0.2446980135621715</v>
       </c>
     </row>
     <row r="33">
@@ -1669,25 +1669,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.026483802304162</v>
+        <v>3.985112884988203</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7604173389225944</v>
+        <v>0.6457140308808639</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.390665626728538</v>
+        <v>1.74092648301663</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>4.312399210765038</v>
+        <v>4.279943645431908</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.036048518865815</v>
+        <v>0.7520172738334102</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.151278590820852</v>
+        <v>2.657979439454079</v>
       </c>
     </row>
     <row r="34">
@@ -1717,7 +1717,7 @@
         <v>3.840026475250089</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.56171439939929</v>
+        <v>7.561714399399285</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.788155008079878</v>
@@ -1726,7 +1726,7 @@
         <v>1.055747104761056</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.557089991660783</v>
+        <v>4.557089991660781</v>
       </c>
     </row>
     <row r="35">
@@ -1737,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.4755616244046783</v>
+        <v>0.3683839381897895</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.232099944490425</v>
+        <v>-5.360578633384935</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.898220117842194</v>
+        <v>-1.881418328513466</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.1611476515722605</v>
+        <v>0.04223383607106584</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.947367982250644</v>
+        <v>0.6061490841590302</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.633493268977712</v>
+        <v>4.817279689476482</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.162321604544421</v>
+        <v>1.212678952276807</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.204053013182436</v>
+        <v>-0.9833745420434544</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.350469457644313</v>
+        <v>2.360747854890661</v>
       </c>
     </row>
     <row r="36">
@@ -1772,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.430625124950049</v>
+        <v>9.568456354144038</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.362848768460065</v>
+        <v>1.031971795578694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.666150684580985</v>
+        <v>4.695859539945714</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.472451535188283</v>
+        <v>6.017809417635484</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.967522584193391</v>
+        <v>7.398548927808895</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.50338387130215</v>
+        <v>10.78890998157355</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.702698354860082</v>
+        <v>6.569397066982708</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.225841526879435</v>
+        <v>3.643987727704142</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.77135383494014</v>
+        <v>6.633102913635715</v>
       </c>
     </row>
     <row r="37">
@@ -1822,7 +1822,7 @@
         <v>2.522406645847732</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>4.967079987073539</v>
+        <v>4.967079987073537</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.256917058787419</v>
@@ -1842,31 +1842,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.05350697728935266</v>
+        <v>0.01149847731006216</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7684648821982516</v>
+        <v>-0.7956224306926825</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2901228984288874</v>
+        <v>-0.33668638694938</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1851425537389641</v>
+        <v>-0.282500756886543</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.07691354115143099</v>
+        <v>-0.08521427853818467</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.432894355468251</v>
+        <v>1.269460216715169</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2493324006799649</v>
+        <v>0.2908015778563723</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3223571549302297</v>
+        <v>-0.2712652818063847</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4741727931219487</v>
+        <v>0.4806431220714107</v>
       </c>
     </row>
     <row r="39">
@@ -1877,31 +1877,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.435697222359441</v>
+        <v>3.532477854416293</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6397558840621673</v>
+        <v>0.5088343150628085</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.835490107028311</v>
+        <v>1.901515683077873</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13.97027745320288</v>
+        <v>11.30518246521515</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>15.49869761316987</v>
+        <v>12.59653518818511</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>24.6489724232433</v>
+        <v>22.61234887930736</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3.410502639513921</v>
+        <v>3.334913074625143</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.67994935671334</v>
+        <v>1.870985709626102</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.555847938683486</v>
+        <v>3.40910466783445</v>
       </c>
     </row>
     <row r="40">
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.424332110088977</v>
+        <v>-2.043611540082795</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.581701972020632</v>
+        <v>-1.508396064928066</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.2917319738712866</v>
+        <v>0.4266842424013161</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.001069367712623333</v>
+        <v>0.02826899296481005</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9391364565781016</v>
+        <v>-0.9502251802765862</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.964878584828449</v>
+        <v>1.822103925058238</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5194850473188825</v>
+        <v>-0.3420410161037299</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.7140617420582415</v>
+        <v>-0.6559358899557964</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.905422259864381</v>
+        <v>1.842835051538563</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.910326930261794</v>
+        <v>1.890508400916384</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.684114625401156</v>
+        <v>2.836490419971646</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.215490693950393</v>
+        <v>5.203919648221043</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.575969853209981</v>
+        <v>4.442775199978203</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.945961330204436</v>
+        <v>3.155435655877469</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.04381371938174</v>
+        <v>6.228630736549318</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.752407700282567</v>
+        <v>2.609945728416637</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.312417370726709</v>
+        <v>2.265002448112145</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.14434603289497</v>
+        <v>4.961680264193738</v>
       </c>
     </row>
     <row r="43">
@@ -2056,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5551413248570047</v>
+        <v>-0.5053148680867257</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4061937690519154</v>
+        <v>-0.3665278922526694</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.03334321276833872</v>
+        <v>0.061285585158564</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.05908079471232686</v>
+        <v>-0.06518461575136185</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2767930695998777</v>
+        <v>-0.2718163598108564</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4399079257552393</v>
+        <v>0.3934845806587619</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1520695668349932</v>
+        <v>-0.09856463461840381</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2019684269099239</v>
+        <v>-0.1749259821109159</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5103129487464182</v>
+        <v>0.4912223989769992</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8449087627817571</v>
+        <v>0.8686178750498942</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.19396149113215</v>
+        <v>1.36861030954959</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.242389196051875</v>
+        <v>2.394268315143444</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.413046491475233</v>
+        <v>2.273303529312326</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.553933334005884</v>
+        <v>1.671392201719394</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.411389471779214</v>
+        <v>3.108136514356126</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.12186197162226</v>
+        <v>1.107433942122696</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9740213891677385</v>
+        <v>0.9639296435864454</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.284488439587387</v>
+        <v>2.193708765041596</v>
       </c>
     </row>
     <row r="46">
@@ -2165,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.7694977676092</v>
+        <v>-3.870770839641791</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.988121375332041</v>
+        <v>-4.26991601744181</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.985760329658271</v>
+        <v>-5.117316102031167</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.7356945099908762</v>
+        <v>-0.8754766067018839</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.136815955233263</v>
+        <v>-1.965479934871815</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.457095381801493</v>
+        <v>-1.373958731766291</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.666768005000831</v>
+        <v>-1.620308096923562</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.482576754719962</v>
+        <v>-2.483237110335946</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.555766538120567</v>
+        <v>-2.544392080448835</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2758949540138896</v>
+        <v>0.3328110348805888</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1565435147711176</v>
+        <v>-0.03224088633794763</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.45778649334241</v>
+        <v>-1.267732617078202</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.152871880135747</v>
+        <v>3.166285081611704</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.471357629433474</v>
+        <v>1.438875975007796</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.960179437550673</v>
+        <v>1.875908624799695</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.1792605577413</v>
+        <v>1.162237684512899</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.07238333892051123</v>
+        <v>0.1217208019422558</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.120983420519536</v>
+        <v>-0.0771604507831071</v>
       </c>
     </row>
     <row r="49">
@@ -2270,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6228329812390706</v>
+        <v>-0.6220588835844678</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6720313465863429</v>
+        <v>-0.6822134051434726</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7899085086180306</v>
+        <v>-0.7990659686352142</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2110169921670344</v>
+        <v>-0.2519509842960776</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5212323806121352</v>
+        <v>-0.4972790811323409</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3378858524973021</v>
+        <v>-0.3324984940011784</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3458300376072731</v>
+        <v>-0.3356310615569361</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5284234099085781</v>
+        <v>-0.5119345494555564</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5160084850723238</v>
+        <v>-0.5132669903483353</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08728047790733032</v>
+        <v>0.1118681679812467</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.0002629070143355553</v>
+        <v>0.03253011001235757</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3300609554177026</v>
+        <v>-0.3237161417694157</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.350487612561201</v>
+        <v>1.362412721518363</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6309246902275418</v>
+        <v>0.6435291310214296</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8407962577481088</v>
+        <v>0.7990410551910008</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.351891461712779</v>
+        <v>0.3488491035498307</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02417402502605331</v>
+        <v>0.07392483050644688</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.03256648913604607</v>
+        <v>-0.02039479583082069</v>
       </c>
     </row>
     <row r="52">
@@ -2350,7 +2350,7 @@
         <v>-1.616142739494327</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.5276091159381602</v>
+        <v>0.5276091159381608</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.401993680085959</v>
@@ -2359,7 +2359,7 @@
         <v>-0.1289396081739221</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.695647204959252</v>
+        <v>2.695647204959253</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.6050059727190499</v>
@@ -2368,7 +2368,7 @@
         <v>-0.8592785830779558</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.636169568027223</v>
+        <v>1.636169568027224</v>
       </c>
     </row>
     <row r="53">
@@ -2379,31 +2379,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.143971172569003</v>
+        <v>-1.179344992818487</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.505066820402597</v>
+        <v>-2.489460764775993</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.4537704191247547</v>
+        <v>-0.3959733848469785</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.5141700633295342</v>
+        <v>0.3554913243356491</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.9483144367809578</v>
+        <v>-0.9095584293896718</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.870794184458344</v>
+        <v>1.859001094297126</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1162936865105029</v>
+        <v>-0.06802253957679644</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.469076183461253</v>
+        <v>-1.49565350616565</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.003386001584804</v>
+        <v>0.9320113668949465</v>
       </c>
     </row>
     <row r="54">
@@ -2414,31 +2414,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8336542986758422</v>
+        <v>0.8426330623551734</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.7219391709474802</v>
+        <v>-0.761443768064168</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.484071710783472</v>
+        <v>1.616422181636273</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.410843693058333</v>
+        <v>2.288721414206969</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7490940780422934</v>
+        <v>0.7838956237123308</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.634002468912271</v>
+        <v>3.521003882701536</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.436700570806217</v>
+        <v>1.225708976882703</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.1769777525493187</v>
+        <v>-0.260779926124327</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.306841237371224</v>
+        <v>2.284795083909728</v>
       </c>
     </row>
     <row r="55">
@@ -2455,7 +2455,7 @@
         <v>-0.3997350877302417</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.1304982976397278</v>
+        <v>0.130498297639728</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.4451464510609351</v>
@@ -2464,7 +2464,7 @@
         <v>-0.04093956327698271</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8558938628927117</v>
+        <v>0.855893862892712</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1685430343014853</v>
@@ -2473,7 +2473,7 @@
         <v>-0.2393784958045249</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4558053904620165</v>
+        <v>0.4558053904620167</v>
       </c>
     </row>
     <row r="56">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2560954599300507</v>
+        <v>-0.2628839817196687</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5492187067231898</v>
+        <v>-0.5542972089361875</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1024881233594571</v>
+        <v>-0.08490934646222162</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.146432114604519</v>
+        <v>0.09394360423152689</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2634571038571901</v>
+        <v>-0.2711243536727967</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5068970771080428</v>
+        <v>0.5151985440260679</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.03072359898917399</v>
+        <v>-0.01975910298173775</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.3809603535715476</v>
+        <v>-0.3792706150370664</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2411244227589006</v>
+        <v>0.238938172259823</v>
       </c>
     </row>
     <row r="57">
@@ -2519,31 +2519,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2324129557242869</v>
+        <v>0.2403854097652737</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1988699108447619</v>
+        <v>-0.2230403895104731</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4193181856829457</v>
+        <v>0.4478920214555991</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8981160550892044</v>
+        <v>0.8288435993348844</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2767024157188369</v>
+        <v>0.2880697264881199</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.361533895686631</v>
+        <v>1.30433173970042</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4425223188167802</v>
+        <v>0.3853043623848409</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.05768806108227193</v>
+        <v>-0.0779867840350869</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.694318043831647</v>
+        <v>0.7072040002776586</v>
       </c>
     </row>
     <row r="58">
